--- a/excel/MIF.xlsx
+++ b/excel/MIF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://npaid-my.sharepoint.com/personal/olerud441_npaid_org/Documents/Desktop/NPA_Fleet_bot/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="11_125586D968469E8037B555AD43F038C2B2740BA5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E790CE6-483C-4A97-B4F5-EBCD04386DB3}"/>
+  <xr:revisionPtr revIDLastSave="178" documentId="11_125586D968469E8037B555AD43F038C2B2740BA5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CA8DF7F-5214-4503-A234-988F699AC34F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <r>
       <rPr>
@@ -444,17 +444,6 @@
         <family val="2"/>
       </rPr>
       <t>Наклейки NPA чіткі та помітні?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Date, name                                                                                                                           Signature</t>
     </r>
   </si>
   <si>
@@ -627,26 +616,14 @@
     </r>
   </si>
   <si>
-    <t>MITSUBISHI</t>
-  </si>
-  <si>
-    <t>FG 3333 FG</t>
-  </si>
-  <si>
-    <t>FG-33</t>
-  </si>
-  <si>
-    <t>fgfgfg</t>
-  </si>
-  <si>
-    <t>+</t>
+    <t>Date, name                                                                                                                           Signature</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -704,6 +681,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -904,8 +888,119 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -927,117 +1022,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1554,8 +1538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:C22"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1571,17 +1555,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1590,14 +1574,14 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="51"/>
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1613,14 +1597,14 @@
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="53"/>
+      <c r="E3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="18"/>
+      <c r="F3" s="55"/>
       <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1629,27 +1613,15 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="55">
-        <v>45975</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="11">
-        <v>33333</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>37</v>
-      </c>
+    <row r="4" spans="1:9" ht="20.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1664,288 +1636,293 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="26"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="48"/>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" ht="89.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="32"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="32"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="36"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="36"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:9" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="37" t="s">
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:9" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="40"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="1:9" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="1:9" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="51" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" spans="1:9" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-    </row>
-    <row r="24" spans="1:9" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="A17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:H18"/>
     <mergeCell ref="A23:I23"/>
     <mergeCell ref="A24:I24"/>
     <mergeCell ref="A20:C20"/>
@@ -1954,41 +1931,6 @@
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="F22:H22"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="A17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:H18"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/excel/MIF.xlsx
+++ b/excel/MIF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://npaid-my.sharepoint.com/personal/olerud441_npaid_org/Documents/Desktop/NPA_Fleet_bot/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="178" documentId="11_125586D968469E8037B555AD43F038C2B2740BA5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CA8DF7F-5214-4503-A234-988F699AC34F}"/>
+  <xr:revisionPtr revIDLastSave="211" documentId="11_125586D968469E8037B555AD43F038C2B2740BA5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F14B9A3E-9E2A-4A52-A88A-93EFBEF30421}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <r>
       <rPr>
@@ -444,17 +444,6 @@
         <family val="2"/>
       </rPr>
       <t>Наклейки NPA чіткі та помітні?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Date, Fleet Officer name                                                                                                    Signature</t>
     </r>
   </si>
   <si>
@@ -616,7 +605,16 @@
     </r>
   </si>
   <si>
-    <t>Date, name                                                                                                                           Signature</t>
+    <t xml:space="preserve">Date, name                                                                                                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                              </t>
+  </si>
+  <si>
+    <t>Signature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date, Fleet Officer name                                                                                                    </t>
   </si>
 </sst>
 </file>
@@ -854,7 +852,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -895,6 +893,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -933,6 +934,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1022,6 +1026,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1063,7 +1070,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="0" y="12945549"/>
           <a:ext cx="2366010" cy="0"/>
         </a:xfrm>
         <a:custGeom>
@@ -1538,8 +1545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1555,17 +1562,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1574,14 +1581,14 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="51"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1597,14 +1604,14 @@
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="54" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="55"/>
+      <c r="F3" s="57"/>
       <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1616,10 +1623,10 @@
     <row r="4" spans="1:9" ht="20.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="6"/>
@@ -1636,258 +1643,264 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="48"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="50"/>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" ht="89.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
+      <c r="A11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
+      <c r="A12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
       <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
+      <c r="A14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="23"/>
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
+      <c r="A17" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="38"/>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="41"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
+      <c r="A19" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="19"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
+      <c r="A21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="22"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="23"/>
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
+      <c r="A22" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="22"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="23"/>
       <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="13"/>
+      <c r="A23" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="27"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
+      <c r="E23" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
       <c r="I23" s="13"/>
     </row>
     <row r="24" spans="1:9" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="13"/>
+      <c r="A24" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="14"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="F24" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
       <c r="I24" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="45">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -1923,14 +1936,16 @@
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:H18"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="F22:H22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/excel/MIF.xlsx
+++ b/excel/MIF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://npaid-my.sharepoint.com/personal/olerud441_npaid_org/Documents/Desktop/NPA_Fleet_bot/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="211" documentId="11_125586D968469E8037B555AD43F038C2B2740BA5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F14B9A3E-9E2A-4A52-A88A-93EFBEF30421}"/>
+  <xr:revisionPtr revIDLastSave="212" documentId="11_125586D968469E8037B555AD43F038C2B2740BA5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94849230-1DF8-4212-AF01-BFADE2F83689}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -895,140 +895,140 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1543,10 +1543,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1562,17 +1565,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1581,14 +1584,14 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="52" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="53"/>
+      <c r="F2" s="17"/>
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1604,14 +1607,14 @@
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="57"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1623,10 +1626,10 @@
     <row r="4" spans="1:9" ht="20.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="6"/>
@@ -1643,312 +1646,312 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" ht="89.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="35"/>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="39"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="39"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="35"/>
       <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="39"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="35"/>
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="35"/>
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="38"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="50"/>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="41"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="53"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="23"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="35"/>
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="23"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="35"/>
       <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="27"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
-      <c r="E23" s="58" t="s">
+      <c r="E23" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
       <c r="I23" s="13"/>
     </row>
     <row r="24" spans="1:9" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="14"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
       <c r="I24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="A17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:H18"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="F10:H10"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="A17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:H18"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="63" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/excel/MIF.xlsx
+++ b/excel/MIF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://npaid-my.sharepoint.com/personal/olerud441_npaid_org/Documents/Desktop/NPA_Fleet_bot/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{DC2A88EA-6B50-47B7-BC6A-E4DD2798FF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F4844E8-BD41-4404-AF9F-BEAE3FDE6846}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{DC2A88EA-6B50-47B7-BC6A-E4DD2798FF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4FFE058-1027-4635-B466-110952D1A3CC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -719,82 +719,82 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1024,6 +1024,10 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1357,15 +1361,15 @@
     </row>
     <row r="2" spans="1:15" ht="51.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
       <c r="K2" s="14"/>
       <c r="L2" s="17"/>
       <c r="M2" s="14"/>
@@ -1380,10 +1384,10 @@
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="33"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1407,10 +1411,10 @@
       <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="35"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1430,8 +1434,8 @@
       <c r="A5" s="11"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
       <c r="F5" s="7"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -1443,13 +1447,13 @@
     </row>
     <row r="6" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
       <c r="K6" s="11"/>
       <c r="L6" s="12"/>
       <c r="M6" s="14"/>
@@ -1458,19 +1462,19 @@
     </row>
     <row r="7" spans="1:15" ht="24.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="37"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="6" t="s">
         <v>30</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="37"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="33"/>
       <c r="K7" s="11"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
@@ -1479,15 +1483,15 @@
     </row>
     <row r="8" spans="1:15" ht="95.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
       <c r="K8" s="8"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
@@ -1496,15 +1500,15 @@
     </row>
     <row r="9" spans="1:15" ht="40.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
       <c r="K9" s="8"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
@@ -1513,15 +1517,15 @@
     </row>
     <row r="10" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="23"/>
       <c r="K10" s="8"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
@@ -1530,15 +1534,15 @@
     </row>
     <row r="11" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="23"/>
       <c r="K11" s="8"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
@@ -1547,15 +1551,15 @@
     </row>
     <row r="12" spans="1:15" ht="40.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="23"/>
       <c r="K12" s="8"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
@@ -1564,15 +1568,15 @@
     </row>
     <row r="13" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
       <c r="K13" s="8"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
@@ -1581,15 +1585,15 @@
     </row>
     <row r="14" spans="1:15" ht="40.700000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="29"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
       <c r="K14" s="8"/>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
@@ -1598,15 +1602,15 @@
     </row>
     <row r="15" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
       <c r="K15" s="8"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
@@ -1615,15 +1619,15 @@
     </row>
     <row r="16" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="23"/>
       <c r="K16" s="8"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
@@ -1632,15 +1636,15 @@
     </row>
     <row r="17" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
       <c r="K17" s="8"/>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
@@ -1649,15 +1653,15 @@
     </row>
     <row r="18" spans="1:15" ht="55.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
       <c r="K18" s="8"/>
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
@@ -1666,15 +1670,15 @@
     </row>
     <row r="19" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="23"/>
       <c r="K19" s="8"/>
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
@@ -1683,15 +1687,15 @@
     </row>
     <row r="20" spans="1:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23"/>
       <c r="K20" s="8"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
@@ -1700,15 +1704,15 @@
     </row>
     <row r="21" spans="1:15" ht="55.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="23"/>
       <c r="K21" s="8"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
@@ -1717,15 +1721,15 @@
     </row>
     <row r="22" spans="1:15" ht="70.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="29"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="23"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
@@ -1734,13 +1738,13 @@
     </row>
     <row r="23" spans="1:15" ht="64.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
@@ -1749,17 +1753,17 @@
     </row>
     <row r="24" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="22"/>
+      <c r="H24" s="37"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
@@ -1767,24 +1771,24 @@
       <c r="O24" s="10"/>
     </row>
     <row r="25" spans="1:15" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="G26" s="25" t="s">
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="G26" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="25"/>
+      <c r="H26" s="38"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -1798,6 +1802,35 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="45">
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="B22:D22"/>
@@ -1814,35 +1847,6 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G25:H25"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId2"/>
